--- a/SampleInitialStatsInput/test2.xlsx
+++ b/SampleInitialStatsInput/test2.xlsx
@@ -21,7 +21,53 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
-    <t>Pre-Level</t>
+    <t>Forgiveveryone</t>
+  </si>
+  <si>
+    <t>littledeer</t>
+  </si>
+  <si>
+    <t>tankmen</t>
+  </si>
+  <si>
+    <t>jdjhsdgf</t>
+  </si>
+  <si>
+    <t>KevinJyc</t>
+  </si>
+  <si>
+    <t>skyshy</t>
+  </si>
+  <si>
+    <t>CaptainArt</t>
+  </si>
+  <si>
+    <t>RES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wunanyi</t>
+  </si>
+  <si>
+    <t>xiaoxiaofish</t>
+  </si>
+  <si>
+    <t>wangdachui</t>
+  </si>
+  <si>
+    <t>haaaary</t>
+  </si>
+  <si>
+    <t>dawnluo</t>
+  </si>
+  <si>
+    <t>CarlNing</t>
+  </si>
+  <si>
+    <t>tinazhou</t>
+  </si>
+  <si>
+    <t>ENL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -33,85 +79,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pre-AP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pre-Distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post-Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post-AP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post-Distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delta-Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delta-AP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delta-Distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forgiveveryone</t>
-  </si>
-  <si>
-    <t>littledeer</t>
-  </si>
-  <si>
-    <t>tankmen</t>
-  </si>
-  <si>
-    <t>jdjhsdgf</t>
-  </si>
-  <si>
-    <t>KevinJyc</t>
-  </si>
-  <si>
-    <t>skyshy</t>
-  </si>
-  <si>
-    <t>CaptainArt</t>
-  </si>
-  <si>
-    <t>RES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wunanyi</t>
-  </si>
-  <si>
-    <t>xiaoxiaofish</t>
-  </si>
-  <si>
-    <t>wangdachui</t>
-  </si>
-  <si>
-    <t>haaaary</t>
-  </si>
-  <si>
-    <t>dawnluo</t>
-  </si>
-  <si>
-    <t>CarlNing</t>
-  </si>
-  <si>
-    <t>tinazhou</t>
-  </si>
-  <si>
-    <t>ENL</t>
+    <t>Pre_Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post_Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post_AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post_Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delta_Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delta_AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delta_Distance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +440,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -455,45 +455,45 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>14</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -524,10 +524,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -541,10 +541,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>14</v>
@@ -558,10 +558,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -575,10 +575,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>11</v>
@@ -592,10 +592,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -609,10 +609,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>15</v>
@@ -626,10 +626,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -643,10 +643,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>14</v>
@@ -660,10 +660,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>15</v>
@@ -677,10 +677,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>11</v>
@@ -711,10 +711,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>9</v>
